--- a/characteristics table.xlsx
+++ b/characteristics table.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yumin's Thinkpad\Desktop\Read-Meat-Consumption---All-Cause-Mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11787A9-BCFA-46DC-93EA-3AD1DD1BCF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A708585C-C3C9-4A60-BFBA-7170778CE082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
+    <sheet name="newest" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="421">
   <si>
     <t>Years of entering cohort</t>
   </si>
@@ -986,12 +989,694 @@
   <si>
     <t>(48) Magnesium (mg/d)</t>
   </si>
+  <si>
+    <t>Dietary Intake</t>
+  </si>
+  <si>
+    <t>Males, n(%)</t>
+  </si>
+  <si>
+    <r>
+      <t>Female</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, n(%)</t>
+    </r>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Total participants, N</t>
+  </si>
+  <si>
+    <t>All-Cause mortality, n(%)</t>
+  </si>
+  <si>
+    <t>Months follow-up (months)</t>
+  </si>
+  <si>
+    <r>
+      <t>Age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (years)</t>
+    </r>
+  </si>
+  <si>
+    <t>5511 (52)</t>
+  </si>
+  <si>
+    <t>All Included Variables</t>
+  </si>
+  <si>
+    <t>idx</t>
+  </si>
+  <si>
+    <t>Optionally included variables</t>
+  </si>
+  <si>
+    <t>9-11th Grade (Incl. 12th w/o diploma), n(%)</t>
+  </si>
+  <si>
+    <t>All-Cause mortality, n (%)</t>
+  </si>
+  <si>
+    <t>Non or light smoker, n (%)</t>
+  </si>
+  <si>
+    <t>Moderate smoker, n (%)</t>
+  </si>
+  <si>
+    <t>Heavy smoker, n (%)</t>
+  </si>
+  <si>
+    <r>
+      <t>Age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (years)</t>
+    </r>
+  </si>
+  <si>
+    <t>20-39 years old, n (%)</t>
+  </si>
+  <si>
+    <t>Postmenopausal, n (%)</t>
+  </si>
+  <si>
+    <t>40-59 years old, n (%)</t>
+  </si>
+  <si>
+    <t>Use of hormone therapy, n (%)</t>
+  </si>
+  <si>
+    <t>60-79 years old, n (%)</t>
+  </si>
+  <si>
+    <t>Parous women, n (%)</t>
+  </si>
+  <si>
+    <t>Oral contraceptive use, n (%)</t>
+  </si>
+  <si>
+    <t>Female, n (%)</t>
+  </si>
+  <si>
+    <t>2007-2008, n (%)</t>
+  </si>
+  <si>
+    <t>2009-2010, n (%)</t>
+  </si>
+  <si>
+    <t>Healthy Weight, n (%)</t>
+  </si>
+  <si>
+    <t>2011-2012, n (%)</t>
+  </si>
+  <si>
+    <t>Obesity, n (%)</t>
+  </si>
+  <si>
+    <t>2012-2013, n (%)</t>
+  </si>
+  <si>
+    <t>Overweight, n (%)</t>
+  </si>
+  <si>
+    <t>Underweight, n (%)</t>
+  </si>
+  <si>
+    <t>Mexican American, n (%)</t>
+  </si>
+  <si>
+    <t>Other Hispanic, n (%)</t>
+  </si>
+  <si>
+    <t>Low, n (%)</t>
+  </si>
+  <si>
+    <t>Non-Hispanic White, n (%)</t>
+  </si>
+  <si>
+    <t>Lower-middle, n (%)</t>
+  </si>
+  <si>
+    <t>Non-Hispanic Black, n (%)</t>
+  </si>
+  <si>
+    <t>Middle, n (%)</t>
+  </si>
+  <si>
+    <t>Other Race - Including Multi-Racial, n (%)</t>
+  </si>
+  <si>
+    <t>Upper-middle, n (%)</t>
+  </si>
+  <si>
+    <t>High, n (%)</t>
+  </si>
+  <si>
+    <t>Less Than 9th Grade, n (%)</t>
+  </si>
+  <si>
+    <t>9-11th Grade (Incl. 12th w/o diploma), n (%)</t>
+  </si>
+  <si>
+    <t>Poor, n (%)</t>
+  </si>
+  <si>
+    <t>High School Grad/GED or Equivalent, n (%)</t>
+  </si>
+  <si>
+    <t>Excellent, n (%)</t>
+  </si>
+  <si>
+    <t>Some College or AA degree, n (%)</t>
+  </si>
+  <si>
+    <t>Very good, n (%)</t>
+  </si>
+  <si>
+    <t>College Graduate or above, n (%)</t>
+  </si>
+  <si>
+    <t>Good, n (%)</t>
+  </si>
+  <si>
+    <t>Fair, n (%)</t>
+  </si>
+  <si>
+    <t>Never married, n (%)</t>
+  </si>
+  <si>
+    <t>History of diseases</t>
+  </si>
+  <si>
+    <t>Married, n (%)</t>
+  </si>
+  <si>
+    <t>(17) Hypercholesterolemia, n (%)</t>
+  </si>
+  <si>
+    <t>Widowed, n (%)</t>
+  </si>
+  <si>
+    <t>(18) Hypertension, n (%)</t>
+  </si>
+  <si>
+    <t>Divorced, n (%)</t>
+  </si>
+  <si>
+    <t>(19) Diabetes, n (%)</t>
+  </si>
+  <si>
+    <t>Separated, n (%)</t>
+  </si>
+  <si>
+    <t>(20) Depression, n (%)</t>
+  </si>
+  <si>
+    <t>Living with partner, n (%)</t>
+  </si>
+  <si>
+    <t>(21) Cardiovascular disease, n (%)</t>
+  </si>
+  <si>
+    <t>(22) Cancer or malignancy, n (%)</t>
+  </si>
+  <si>
+    <t>(23) Family history of diabetes, n (%)</t>
+  </si>
+  <si>
+    <t>Non-drinker, n (%)</t>
+  </si>
+  <si>
+    <t>(24) Family history of myocardial infarction, n (%)</t>
+  </si>
+  <si>
+    <t>Moderate drinker, n (%)</t>
+  </si>
+  <si>
+    <t>Prescription medication intakes</t>
+  </si>
+  <si>
+    <t>Heavy drinker, n (%)</t>
+  </si>
+  <si>
+    <t>(25) Use of Aspirin, n (%)</t>
+  </si>
+  <si>
+    <t>(26) Use of Ibuprofen, n (%)</t>
+  </si>
+  <si>
+    <t>Non-worker, n (%)</t>
+  </si>
+  <si>
+    <t>(27) Use of Opium, n (%)</t>
+  </si>
+  <si>
+    <t>Part-time worker, n (%)</t>
+  </si>
+  <si>
+    <t>(28) Use of Statin, n (%)</t>
+  </si>
+  <si>
+    <t>Full-time worker, n (%)</t>
+  </si>
+  <si>
+    <t>(29) Use of Valsartan, n (%)</t>
+  </si>
+  <si>
+    <r>
+      <t>(8) Vigorous or moderate activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, n (%)</t>
+    </r>
+  </si>
+  <si>
+    <t>≤4 hours/night, n (%)</t>
+  </si>
+  <si>
+    <t>5-8 hours/night, n (%)</t>
+  </si>
+  <si>
+    <t>≥9 hours/night, n (%)</t>
+  </si>
+  <si>
+    <t>$ 0 to $14,999, n (%)</t>
+  </si>
+  <si>
+    <t>$15,000 to $34,999, n (%)</t>
+  </si>
+  <si>
+    <t>$35,000 to $64,999, n (%)</t>
+  </si>
+  <si>
+    <t>$65,000 and over, n (%)</t>
+  </si>
+  <si>
+    <t>(12) Socioeconomic status</t>
+  </si>
+  <si>
+    <r>
+      <t>(13) BMI (kg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Optional adjusting variables</t>
+  </si>
+  <si>
+    <t>Male, n (%)</t>
+  </si>
+  <si>
+    <t>Total energy intake (kcal/d)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(5) Alcohol drinking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(drinks/d)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Total participants</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>All-Cause mortality</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, n (%)</t>
+    </r>
+  </si>
+  <si>
+    <t>1022 (10)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Months follow-up </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(months)</t>
+    </r>
+  </si>
+  <si>
+    <t>2653 (52)</t>
+  </si>
+  <si>
+    <t>1186 (23)</t>
+  </si>
+  <si>
+    <t>4360 (85)</t>
+  </si>
+  <si>
+    <t>3940 (77)</t>
+  </si>
+  <si>
+    <t>Dietary Intakes</t>
+  </si>
+  <si>
+    <t>28.4 (21.9, 38.5)</t>
+  </si>
+  <si>
+    <t>2013-2014, n (%)</t>
+  </si>
+  <si>
+    <t>1.2 (0.2, 3.0)</t>
+  </si>
+  <si>
+    <t>232.5 (134.0, 380.2)</t>
+  </si>
+  <si>
+    <t>246.0 (103.0, 535.5)</t>
+  </si>
+  <si>
+    <t>275.5 (160.0, 457.0)</t>
+  </si>
+  <si>
+    <t>360 (120, 600)</t>
+  </si>
+  <si>
+    <t>2.51 (0.73, 5)</t>
+  </si>
+  <si>
+    <t>120.7 (104.0, 145.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) Race/Ethnicity </t>
+  </si>
+  <si>
+    <t>(2) Education</t>
+  </si>
+  <si>
+    <t>(3) Marital status</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(4) Alcohol drinking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(drinks/d)</t>
+    </r>
+  </si>
+  <si>
+    <t>(5) Alcohol drinking groups</t>
+  </si>
+  <si>
+    <t>(6) Occupation</t>
+  </si>
+  <si>
+    <r>
+      <t>(7) Vigorous or moderate activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, n (%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(8) Sedentary lifestyle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(minutes/d)</t>
+    </r>
+  </si>
+  <si>
+    <t>(9) Sleep</t>
+  </si>
+  <si>
+    <t>(10) Annual family income</t>
+  </si>
+  <si>
+    <t>(11) Socioeconomic status (PIR)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(12) BMI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(kg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>(13) BMI groups</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(14) Systolic blood pressure </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(mm Hg)</t>
+    </r>
+  </si>
+  <si>
+    <t>(15) Health condition</t>
+  </si>
+  <si>
+    <t>(16) Hypercholesterolemia, n (%)</t>
+  </si>
+  <si>
+    <t>(17) Hypertension, n (%)</t>
+  </si>
+  <si>
+    <t>(18) Diabetes, n (%)</t>
+  </si>
+  <si>
+    <t>(19) Depression, n (%)</t>
+  </si>
+  <si>
+    <t>(20) Cardiovascular disease, n (%)</t>
+  </si>
+  <si>
+    <t>(21) Cancer or malignancy, n (%)</t>
+  </si>
+  <si>
+    <t>(22) Family history of diabetes, n (%)</t>
+  </si>
+  <si>
+    <t>(23) Family history of myocardial infarction, n (%)</t>
+  </si>
+  <si>
+    <t>(24) Use of Aspirin, n (%)</t>
+  </si>
+  <si>
+    <t>(25) Use of Ibuprofen, n (%)</t>
+  </si>
+  <si>
+    <t>(26) Use of Opium, n (%)</t>
+  </si>
+  <si>
+    <t>(27) Use of Statin, n (%)</t>
+  </si>
+  <si>
+    <t>(28) Use of Valsartan, n (%)</t>
+  </si>
+  <si>
+    <t>(29) Special diet, %</t>
+  </si>
+  <si>
+    <t>(30) Use of dietary supplements, %</t>
+  </si>
+  <si>
+    <t>(31) Processed meat (g/d)</t>
+  </si>
+  <si>
+    <t>(32) Poultry (g/d)</t>
+  </si>
+  <si>
+    <t>(33) Fruits (cups/d)</t>
+  </si>
+  <si>
+    <t>(34) Vegetables (cups/d)</t>
+  </si>
+  <si>
+    <t>(35) Seafood (g/d)</t>
+  </si>
+  <si>
+    <t>(36) Whole grain (g/d)</t>
+  </si>
+  <si>
+    <t>(37) Eggs (g/d)</t>
+  </si>
+  <si>
+    <t>(38) Nuts and seeds (g/d)</t>
+  </si>
+  <si>
+    <t>(39) Legumes (g/d)</t>
+  </si>
+  <si>
+    <t>(40) Total diary (cups/d)</t>
+  </si>
+  <si>
+    <t>(41) Carbohydrates (g/d)</t>
+  </si>
+  <si>
+    <t>(42) Dietary fiber (g/d)</t>
+  </si>
+  <si>
+    <t>(43) SFAs (g/d)</t>
+  </si>
+  <si>
+    <t>(44) MUFAs (g/d)</t>
+  </si>
+  <si>
+    <t>(45) PUFAs (g/d)</t>
+  </si>
+  <si>
+    <t>(46) Cholesterol (mg/d)</t>
+  </si>
+  <si>
+    <t>(47) Magnesium (mg/d)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1016,16 +1701,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1033,11 +1762,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1050,17 +1850,113 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3492,8 +4388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D45A5E2-3C08-44F9-9E46-36AEDE758215}">
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C128"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4815,945 +5711,3962 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02313049-66FD-4294-A709-7872CE9354B7}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="36.1015625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.89453125" customWidth="1"/>
-    <col min="3" max="3" width="4.3671875" customWidth="1"/>
-    <col min="4" max="4" width="28.15625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18.68359375" customWidth="1"/>
+    <col min="1" max="1" width="4.62890625" customWidth="1"/>
+    <col min="2" max="2" width="26.5234375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.20703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="3.734375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="28.15625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.68359375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="8">
         <v>10661</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7" t="s">
+      <c r="E2" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F23" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F24" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F25" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F26" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5" t="s">
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F28" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F29" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F30" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5" t="s">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F31" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5" t="s">
+    <row r="32" spans="2:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F32" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7" t="s">
+    <row r="33" spans="2:6" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F33" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5" t="s">
+    </row>
+    <row r="35" spans="2:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F35" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5" t="s">
+    <row r="36" spans="2:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F36" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5" t="s">
+    <row r="37" spans="2:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F37" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5" t="s">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F38" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7" t="s">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5" t="s">
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F40" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5" t="s">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F41" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5" t="s">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F42" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5" t="s">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F43" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5" t="s">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F44" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7" t="s">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5" t="s">
+    </row>
+    <row r="46" spans="2:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F46" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="5" t="s">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F47" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="5" t="s">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F48" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="5" t="s">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F49" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5" t="s">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F50" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7" t="s">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="8" t="s">
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F52" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="8" t="s">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F53" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="8" t="s">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F54" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="8" t="s">
+    <row r="55" spans="2:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F55" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="8" t="s">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F56" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="8" t="s">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F57" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="8" t="s">
+    <row r="58" spans="2:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F58" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="8" t="s">
+    <row r="59" spans="2:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F59" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7" t="s">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="8" t="s">
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F61" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="8" t="s">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F62" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="8" t="s">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F63" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="8" t="s">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F64" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="8" t="s">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F65" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7" t="s">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E66" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="8" t="s">
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E67" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F67" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="8" t="s">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E68" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F68" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="8" t="s">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E69" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F69" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="8" t="s">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E71" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F71" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="8" t="s">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E72" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F72" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="8" t="s">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E73" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F73" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="8" t="s">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E74" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F74" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="8" t="s">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E75" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F75" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="8" t="s">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E76" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F76" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="8" t="s">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E77" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F77" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="8" t="s">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E78" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F78" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="8" t="s">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E79" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F79" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="8" t="s">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E81" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F81" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="8" t="s">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E82" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F82" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="8" t="s">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E83" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F83" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C63" s="6"/>
-      <c r="D63" s="8" t="s">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E84" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F84" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C64" s="6"/>
-      <c r="D64" s="8" t="s">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E85" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F85" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D65" s="8" t="s">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E86" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F86" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D66" s="8" t="s">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E87" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F87" s="8" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EE7D78-C3FF-4BA9-8EC8-A7F1672D5F36}">
+  <dimension ref="A1:F82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F71" sqref="B1:F71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="5.20703125" customWidth="1"/>
+    <col min="2" max="2" width="42.734375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.83984375" style="11"/>
+    <col min="4" max="4" width="6.47265625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="42.68359375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="16.3671875" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="13">
+        <v>10661</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="9"/>
+      <c r="B17" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="9"/>
+      <c r="B18" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="9"/>
+      <c r="B19" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="9"/>
+      <c r="B20" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="9"/>
+      <c r="B21" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="9"/>
+      <c r="B22" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="9"/>
+      <c r="B23" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="9"/>
+      <c r="B24" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="9"/>
+      <c r="B25" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="9"/>
+      <c r="B26" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="9"/>
+      <c r="B27" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="9"/>
+      <c r="B28" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="9"/>
+      <c r="B29" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="9"/>
+      <c r="B30" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="9"/>
+      <c r="B31" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="9"/>
+      <c r="B32" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="9"/>
+      <c r="B33" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="9"/>
+      <c r="B34" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="9"/>
+      <c r="B35" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="9"/>
+      <c r="B36" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="9"/>
+      <c r="B37" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="9"/>
+      <c r="B38" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="9"/>
+      <c r="B39" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="9"/>
+      <c r="B40" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="9"/>
+      <c r="B41" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="9"/>
+      <c r="B42" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="9"/>
+      <c r="B43" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="9"/>
+      <c r="B44" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="9"/>
+      <c r="B45" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="9"/>
+      <c r="B46" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" s="17"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="9"/>
+      <c r="B47" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="9"/>
+      <c r="B48" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="9"/>
+      <c r="B49" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="9"/>
+      <c r="B50" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="17"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="9"/>
+      <c r="B51" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C51" s="17"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="9"/>
+      <c r="B52" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="9"/>
+      <c r="B53" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="9"/>
+      <c r="B54" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="9"/>
+      <c r="B55" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="9"/>
+      <c r="B56" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="9"/>
+      <c r="B57" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" s="17"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="9"/>
+      <c r="B58" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="9"/>
+      <c r="B59" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="9"/>
+      <c r="B60" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="9"/>
+      <c r="B61" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="17"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="9"/>
+      <c r="B62" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="9"/>
+      <c r="B63" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="9"/>
+      <c r="B64" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="E64" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="9"/>
+      <c r="B65" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="13"/>
+      <c r="E65" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="9"/>
+      <c r="B66" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C66" s="17"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="9"/>
+      <c r="B67" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="9"/>
+      <c r="B68" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="13"/>
+      <c r="E68" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="9"/>
+      <c r="B69" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="13"/>
+      <c r="E69" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="9"/>
+      <c r="B70" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="13"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+    </row>
+    <row r="71" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A71" s="9"/>
+      <c r="B71" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="21"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+    </row>
+    <row r="72" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="9"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="9"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="9"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="9"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="9"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="9"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="9"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="9"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="9"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="9"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="9"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD022895-7CFA-482F-84B0-DFDB24723CBB}">
+  <dimension ref="A1:E72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="25.26171875" customWidth="1"/>
+    <col min="2" max="2" width="12.62890625" customWidth="1"/>
+    <col min="4" max="4" width="31.83984375" customWidth="1"/>
+    <col min="5" max="5" width="17.20703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="27">
+        <v>10661</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="24"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+    </row>
+    <row r="71" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A71" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+    </row>
+    <row r="72" spans="1:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A16:E16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9E98D7-6963-49CA-AC1F-37D6694D8937}">
+  <dimension ref="A1:E67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="29.3125" customWidth="1"/>
+    <col min="2" max="2" width="14.734375" customWidth="1"/>
+    <col min="3" max="3" width="18.15625" customWidth="1"/>
+    <col min="4" max="4" width="23.5234375" customWidth="1"/>
+    <col min="5" max="5" width="31.1015625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="41">
+        <v>10661</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="35"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="35"/>
+      <c r="D14" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+    </row>
+    <row r="19" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="E27" s="35"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="D36" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="E36" s="35"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="35"/>
+      <c r="D42" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="35"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="E55" s="35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="E59" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="E61" s="42" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="35"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="35"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="35"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="B65" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="35"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+    </row>
+    <row r="66" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+    </row>
+    <row r="67" spans="1:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A19:E19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>